--- a/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,84</t>
+          <t>27,17; 32,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,17</t>
+          <t>37,65; 44,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,65; 50,88</t>
+          <t>43,55; 50,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,17</t>
+          <t>23,87; 30,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,55; 42,78</t>
+          <t>37,54; 42,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,08</t>
+          <t>33,73; 39,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,46; 52,95</t>
+          <t>46,63; 53,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 30,55</t>
+          <t>24,84; 30,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 37,81</t>
+          <t>33,72; 37,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,93; 40,19</t>
+          <t>36,09; 40,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,26; 51,0</t>
+          <t>46,35; 51,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,27; 29,74</t>
+          <t>25,41; 29,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,53</t>
+          <t>12,79; 16,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,01; 32,32</t>
+          <t>28,02; 32,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,05; 36,49</t>
+          <t>32,07; 36,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,82</t>
+          <t>11,11; 14,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,35; 24,66</t>
+          <t>20,5; 24,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,21; 34,95</t>
+          <t>30,2; 34,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 36,91</t>
+          <t>32,3; 36,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 17,79</t>
+          <t>13,12; 17,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 19,8</t>
+          <t>17,04; 19,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,67; 32,73</t>
+          <t>29,61; 32,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,91; 36,0</t>
+          <t>32,97; 36,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,94</t>
+          <t>12,64; 15,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,37</t>
+          <t>4,85; 9,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 15,72</t>
+          <t>9,0; 15,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,65</t>
+          <t>8,24; 13,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,44</t>
+          <t>1,58; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 15,6</t>
+          <t>9,2; 15,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 18,66</t>
+          <t>11,48; 18,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 17,17</t>
+          <t>11,16; 16,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,98</t>
+          <t>3,93; 7,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,41</t>
+          <t>7,55; 11,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,62</t>
+          <t>11,12; 15,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,64</t>
+          <t>10,38; 14,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,26</t>
+          <t>3,06; 5,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,7; 19,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,9; 32,24</t>
+          <t>29,05; 32,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 35,1</t>
+          <t>31,76; 35,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 14,61</t>
+          <t>11,89; 14,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,26; 29,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,02; 33,17</t>
+          <t>29,99; 33,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,59</t>
+          <t>34,12; 37,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 17,77</t>
+          <t>14,59; 17,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,96; 24,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,91; 32,23</t>
+          <t>29,92; 32,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 35,8</t>
+          <t>33,46; 35,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 15,84</t>
+          <t>13,72; 15,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,17; 32,72</t>
+          <t>27,2; 32,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,65; 44,09</t>
+          <t>37,51; 43,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,55; 50,6</t>
+          <t>43,58; 50,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,54; 42,82</t>
+          <t>37,44; 43,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,73; 39,18</t>
+          <t>33,86; 38,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,63; 53,09</t>
+          <t>46,39; 53,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 37,63</t>
+          <t>33,67; 37,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,09; 40,03</t>
+          <t>36,08; 40,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,35; 51,16</t>
+          <t>46,41; 51,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,35</t>
+          <t>12,87; 16,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,02; 32,47</t>
+          <t>27,91; 32,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 36,2</t>
+          <t>32,04; 36,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,5; 24,57</t>
+          <t>20,57; 24,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 34,79</t>
+          <t>30,24; 34,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 36,97</t>
+          <t>32,52; 36,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 19,72</t>
+          <t>16,99; 19,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 32,71</t>
+          <t>29,65; 32,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 36,02</t>
+          <t>33,08; 36,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,54</t>
+          <t>4,66; 9,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 15,78</t>
+          <t>9,27; 15,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,95</t>
+          <t>8,42; 13,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 15,52</t>
+          <t>9,32; 15,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,19</t>
+          <t>11,42; 18,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,91</t>
+          <t>11,01; 17,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,33</t>
+          <t>7,59; 11,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 15,99</t>
+          <t>11,15; 15,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 14,73</t>
+          <t>10,35; 14,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,48</t>
+          <t>16,91; 19,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,05; 32,1</t>
+          <t>28,79; 32,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,76; 35,16</t>
+          <t>31,83; 35,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 29,46</t>
+          <t>26,18; 29,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 33,21</t>
+          <t>29,94; 33,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,12; 37,53</t>
+          <t>34,07; 37,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,13</t>
+          <t>21,97; 24,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,92; 32,29</t>
+          <t>29,96; 32,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,46; 35,77</t>
+          <t>33,4; 35,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,2; 32,62</t>
+          <t>27,08; 32,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,51; 43,94</t>
+          <t>37,92; 44,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,58; 50,95</t>
+          <t>43,65; 50,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,84</t>
+          <t>23,88; 31,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,44; 43,0</t>
+          <t>37,55; 42,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,86; 38,97</t>
+          <t>33,72; 39,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,39; 53,37</t>
+          <t>46,46; 52,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,42</t>
+          <t>24,91; 30,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 37,52</t>
+          <t>33,81; 37,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,08; 40,47</t>
+          <t>35,93; 40,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,41; 51,09</t>
+          <t>46,26; 51,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,41; 29,78</t>
+          <t>25,27; 29,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 16,46</t>
+          <t>12,95; 16,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,91; 32,32</t>
+          <t>28,01; 32,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,04; 36,54</t>
+          <t>32,05; 36,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,8</t>
+          <t>11,2; 14,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,57; 24,75</t>
+          <t>20,35; 24,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,24; 34,79</t>
+          <t>30,21; 34,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,52; 36,65</t>
+          <t>32,59; 36,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,12; 17,77</t>
+          <t>13,14; 17,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 19,68</t>
+          <t>17,07; 19,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,65; 32,76</t>
+          <t>29,67; 32,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,08; 36,11</t>
+          <t>32,91; 36,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 15,69</t>
+          <t>12,97; 15,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,27</t>
+          <t>4,76; 9,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,56</t>
+          <t>9,33; 15,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,96</t>
+          <t>8,28; 13,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,46</t>
+          <t>1,57; 4,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 15,27</t>
+          <t>9,19; 15,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,35</t>
+          <t>11,4; 18,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,01; 17,6</t>
+          <t>11,12; 17,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,08</t>
+          <t>3,84; 6,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,4</t>
+          <t>7,52; 11,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,15; 15,84</t>
+          <t>11,18; 15,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,55</t>
+          <t>10,56; 14,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,29</t>
+          <t>3,06; 5,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,71</t>
+          <t>16,71; 19,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,79; 32,21</t>
+          <t>28,9; 32,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 35,22</t>
+          <t>31,67; 35,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,69</t>
+          <t>11,82; 14,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,18; 29,4</t>
+          <t>26,32; 29,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,94; 33,29</t>
+          <t>30,02; 33,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,07; 37,31</t>
+          <t>34,19; 37,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 17,68</t>
+          <t>14,5; 17,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,97; 24,07</t>
+          <t>22,0; 24,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,96; 32,27</t>
+          <t>29,91; 32,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 35,83</t>
+          <t>33,45; 35,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 15,92</t>
+          <t>13,68; 15,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>27,09%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,17</t>
+          <t>23,34; 30,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 30,55</t>
+          <t>24,81; 30,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,27; 29,74</t>
+          <t>25,1; 29,36</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,21%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,82</t>
+          <t>8,01; 13,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 17,79</t>
+          <t>12,87; 25,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 15,94</t>
+          <t>11,67; 18,28</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,44</t>
+          <t>1,55; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,98</t>
+          <t>3,77; 6,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,26</t>
+          <t>3,01; 5,2</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 14,61</t>
+          <t>9,36; 13,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 17,77</t>
+          <t>14,43; 22,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 15,84</t>
+          <t>12,72; 17,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,84</t>
+          <t>27,29; 33,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,17</t>
+          <t>37,64; 43,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,65; 50,88</t>
+          <t>44,05; 50,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,56</t>
+          <t>23,39; 30,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,55; 42,78</t>
+          <t>37,61; 42,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,08</t>
+          <t>33,61; 39,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,46; 52,95</t>
+          <t>46,27; 53,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,81; 30,09</t>
+          <t>24,73; 30,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 37,81</t>
+          <t>33,6; 37,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,93; 40,19</t>
+          <t>36,19; 40,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,26; 51,0</t>
+          <t>46,55; 51,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,1; 29,36</t>
+          <t>24,91; 29,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,53</t>
+          <t>12,99; 16,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,01; 32,32</t>
+          <t>27,97; 32,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,05; 36,49</t>
+          <t>32,3; 36,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,65</t>
+          <t>8,31; 13,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,35; 24,66</t>
+          <t>20,54; 24,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,21; 34,95</t>
+          <t>30,17; 34,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 36,91</t>
+          <t>32,55; 36,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 25,17</t>
+          <t>13,12; 25,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 19,8</t>
+          <t>16,98; 19,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,67; 32,73</t>
+          <t>29,5; 32,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,91; 36,0</t>
+          <t>33,02; 36,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 18,28</t>
+          <t>11,65; 18,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,37</t>
+          <t>4,94; 9,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 15,72</t>
+          <t>9,13; 15,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,65</t>
+          <t>8,2; 14,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,46</t>
+          <t>1,62; 4,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 15,6</t>
+          <t>9,36; 15,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 18,66</t>
+          <t>11,6; 18,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 17,17</t>
+          <t>11,33; 17,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,91</t>
+          <t>3,76; 7,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,41</t>
+          <t>7,48; 11,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,62</t>
+          <t>11,27; 16,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,64</t>
+          <t>10,46; 14,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,2</t>
+          <t>3,03; 5,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,6; 19,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,9; 32,24</t>
+          <t>29,01; 32,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 35,1</t>
+          <t>31,73; 35,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,73</t>
+          <t>9,38; 13,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,34; 29,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,02; 33,17</t>
+          <t>30,03; 33,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,19; 37,59</t>
+          <t>34,15; 37,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 22,57</t>
+          <t>14,37; 23,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,85; 23,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,91; 32,23</t>
+          <t>29,97; 32,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 35,8</t>
+          <t>33,47; 35,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,72; 17,7</t>
+          <t>12,79; 17,48</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que llega a fin de mes con dificultad o mucha dificultad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>302672</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>394020</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>354723</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>135238</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>514733</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>483485</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>493047</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>202715</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>817405</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>877505</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>847771</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>337953</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>275674; 335133</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>364392; 425762</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>329165; 380755</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>118016; 154657</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>482695; 548500</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>447135; 519306</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>457343; 524259</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>183743; 224709</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>770595; 863394</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>831869; 926416</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>808052; 890837</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>310738; 364734</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>243797</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>590063</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>705630</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>262032</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>351085</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>567802</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>686457</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>371002</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>594883</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1157865</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1392088</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>633035</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>217490; 274993</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>547948; 632296</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>664721; 751674</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>188045; 311332</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>320751; 387494</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>528110; 608084</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>643680; 729360</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>287690; 564842</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>549446; 637779</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1094335; 1210694</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1332757; 1458875</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>519129; 805441</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37672</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58096</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59179</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17128</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56515</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>67532</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>76978</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33851</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>94187</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>125628</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>136157</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50979</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26995; 52582</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43409; 75176</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>44663; 76382</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10389; 28678</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43939; 73811</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53107; 84120</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62077; 94666</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24462; 46587</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>76028; 115360</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>105166; 150104</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>114286; 158863</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39188; 66830</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>584141</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1042178</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1119533</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>414398</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>922333</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1118820</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1256483</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>607568</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1506475</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2160998</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2376015</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1021966</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>536405; 626782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>986910; 1097969</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1063194; 1175195</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>319913; 465238</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>873035; 977713</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1062526; 1174305</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1200047; 1319981</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>515613; 828571</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1429935; 1569869</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2080255; 2241161</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2297526; 2456657</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>894882; 1223001</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>